--- a/test/fixtures/Test_format_weird_NCBI.xlsx
+++ b/test/fixtures/Test_format_weird_NCBI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jc2017/Documents/MyRepos/safedata_validator/test/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorme/Research/SAFE/Database/safedata_validator_package/test/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C541A20B-4924-3647-AD82-2197CB8252DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B893F-1C6F-0249-8C24-4855B39B6AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27880" windowHeight="15840" xr2:uid="{819B57D8-7F20-471A-9405-EB60A28E68AA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27880" windowHeight="15840" xr2:uid="{819B57D8-7F20-471A-9405-EB60A28E68AA}"/>
   </bookViews>
   <sheets>
     <sheet name="NCBITaxa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Kingdom</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>NCBI ID</t>
-  </si>
-  <si>
     <t>Subphylum</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>E coli strain</t>
   </si>
   <si>
-    <t>Proteobacteria</t>
-  </si>
-  <si>
     <t>Gammaproteobacteria</t>
   </si>
   <si>
@@ -96,24 +90,12 @@
     <t>Enterobacteriaceae</t>
   </si>
   <si>
-    <t>Enterobacteriales</t>
-  </si>
-  <si>
     <t>Escherichia coli 1-110-08_S1_C1</t>
   </si>
   <si>
-    <t>B foraminis</t>
-  </si>
-  <si>
     <t>foraminis</t>
   </si>
   <si>
-    <t>Bacillus</t>
-  </si>
-  <si>
-    <t>Firmicutes</t>
-  </si>
-  <si>
     <t>Bacilli</t>
   </si>
   <si>
@@ -127,6 +109,27 @@
   </si>
   <si>
     <t>Unknown E coli strain</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Mesobacillus</t>
+  </si>
+  <si>
+    <t>M foraminis</t>
+  </si>
+  <si>
+    <t>Pseudomonadota</t>
+  </si>
+  <si>
+    <t>Enterobacterales</t>
+  </si>
+  <si>
+    <t>Bacillota</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -517,140 +520,137 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>131221</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>1444049</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
